--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -1294,17 +1294,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1578,7 +1578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1589,7 +1589,7 @@
   <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1623,9 +1623,9 @@
       <c r="B2" s="22"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1633,40 +1633,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -1780,7 +1780,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="7"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2026,7 +2026,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -2121,40 +2121,40 @@
     </row>
     <row r="16" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="26"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11736"/>
@@ -65,7 +65,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -129,7 +129,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>실제</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -193,7 +193,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -212,31 +212,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일
-실제</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +257,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -296,7 +276,71 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -341,7 +385,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -360,31 +404,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일
-실제</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -425,7 +449,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>실제</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -444,11 +468,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0">
+    <comment ref="P9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +513,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -508,11 +532,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="U10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +577,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -572,11 +596,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +641,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -636,11 +660,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0">
+    <comment ref="M12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -681,7 +705,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -700,11 +724,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="0">
+    <comment ref="N13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +769,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -764,11 +788,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="Q14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -809,7 +833,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -828,11 +852,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0">
+    <comment ref="S15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -873,7 +897,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -892,7 +916,71 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -901,17 +989,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 구조 리팩토링</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -923,19 +1007,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현한 물리 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -947,15 +1023,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물리 구역 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자물쇠, 열쇠 시스템 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -963,15 +1031,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예상</t>
+    <t>진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실제</t>
+    <t>완료일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예상, 실제</t>
+    <t>예전 구조 리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전구역 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전구역 UI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 UI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 구역(중력, 얼음) 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 UI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지 생신으로 인한 휴식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1213,6 +1313,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1224,7 +1344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,13 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,15 +1409,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1600,73 +1723,68 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B2" s="22"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="23"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -1768,29 +1886,28 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1805,16 +1922,16 @@
       <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1842,8 +1959,8 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>8</v>
+      <c r="A8" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1853,15 +1970,15 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -1879,8 +1996,8 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
-        <v>9</v>
+      <c r="A9" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1891,11 +2008,14 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1913,8 +2033,8 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
-        <v>10</v>
+      <c r="A10" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1925,14 +2045,17 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
@@ -1947,8 +2070,8 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>11</v>
+      <c r="A11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1959,11 +2082,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1981,8 +2107,8 @@
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
+      <c r="A12" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1991,12 +2117,16 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="22"/>
-      <c r="P12" s="7"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -2014,8 +2144,8 @@
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
-        <v>13</v>
+      <c r="A13" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2024,14 +2154,16 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -2049,8 +2181,8 @@
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
-        <v>14</v>
+      <c r="A14" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2061,15 +2193,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="21"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2082,31 +2217,29 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="8"/>
     </row>
-    <row r="15" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="V15" s="21"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -2119,284 +2252,314 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="8"/>
     </row>
-    <row r="16" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="8"/>
+    </row>
+    <row r="18" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="26"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="23"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="12">
         <v>44470</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C20" s="11">
         <v>44471</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D20" s="11">
         <v>44472</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E20" s="11">
         <v>44473</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F20" s="11">
         <v>44474</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G20" s="14">
         <v>44475</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H20" s="14">
         <v>44476</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I20" s="11">
         <v>44477</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J20" s="11">
         <v>44478</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K20" s="11">
         <v>44479</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L20" s="11">
         <v>44480</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M20" s="11">
         <v>44481</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N20" s="14">
         <v>44482</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O20" s="14">
         <v>44483</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P20" s="11">
         <v>44484</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q20" s="11">
         <v>44485</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R20" s="11">
         <v>44486</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S20" s="11">
         <v>44487</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T20" s="11">
         <v>44488</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U20" s="14">
         <v>44489</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V20" s="14">
         <v>44490</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W20" s="11">
         <v>44491</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X20" s="11">
         <v>44492</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y20" s="11">
         <v>44493</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z20" s="11">
         <v>44494</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA20" s="11">
         <v>44495</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB20" s="14">
         <v>44496</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC20" s="14">
         <v>44497</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AD20" s="11">
         <v>44498</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AE20" s="11">
         <v>44499</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AF20" s="11">
         <v>44500</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG20" s="11">
         <v>44501</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="8"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="8"/>
-    </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="8"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2431,7 +2594,7 @@
       <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2466,7 +2629,7 @@
       <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2501,7 +2664,7 @@
       <c r="AG24" s="8"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2536,7 +2699,7 @@
       <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2571,7 +2734,7 @@
       <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2605,152 +2768,296 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="8"/>
     </row>
-    <row r="28" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="10"/>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="8"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="A31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="8"/>
+    </row>
+    <row r="32" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="10"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -449,6 +449,89 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>타일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완성</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>완료</t>
         </r>
         <r>
@@ -989,7 +1072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1068,6 +1151,10 @@
   </si>
   <si>
     <t>아버지 생신으로 인한 휴식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1411,6 +1498,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,12 +1511,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1711,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1731,12 +1818,12 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B2" s="20"/>
@@ -1751,40 +1838,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -1901,7 +1988,7 @@
       <c r="K6" s="18"/>
       <c r="M6" s="3"/>
       <c r="N6" s="18"/>
-      <c r="O6" s="20"/>
+      <c r="O6" s="18"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -1975,10 +2062,10 @@
       <c r="L8" s="21"/>
       <c r="M8" s="7"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -2069,7 +2156,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2284,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
-      <c r="O14" s="20"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="21"/>
@@ -2269,7 +2356,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -2367,7 +2454,9 @@
       <c r="N18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2389,40 +2478,40 @@
     </row>
     <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="16"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
@@ -2839,7 +2928,7 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2911,7 +3000,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="9"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -487,11 +487,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완성</t>
+          <t>완료</t>
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0">
+    <comment ref="V8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,6 +552,119 @@
             <charset val="129"/>
           </rPr>
           <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>축소</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
@@ -559,6 +672,39 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예외처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -596,7 +742,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료</t>
+          <t>레터박스
+예상</t>
         </r>
         <r>
           <rPr>
@@ -615,11 +762,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상일</t>
+          <t>완료일</t>
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="0">
+    <comment ref="Q10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="U11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="O12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="M13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="0">
+    <comment ref="N14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="0">
+    <comment ref="R15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1150,135 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0">
+    <comment ref="T16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1159,6 +1434,14 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택, 드래그 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,6 +1785,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +2074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1796,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1818,12 +2104,12 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B2" s="20"/>
@@ -1838,40 +2124,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -1989,7 +2275,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -2063,13 +2349,10 @@
       <c r="M8" s="7"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -2100,13 +2383,13 @@
       <c r="M9" s="7"/>
       <c r="N9" s="18"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="20"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -2121,7 +2404,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2132,18 +2415,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="7"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -2156,9 +2439,9 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2171,15 +2454,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="21"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="20"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -2193,9 +2476,9 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2204,13 +2487,13 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="21"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -2232,7 +2515,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2241,11 +2524,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="19"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -2269,7 +2552,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2279,19 +2562,19 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="21"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2306,7 +2589,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2321,11 +2604,12 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="20"/>
+      <c r="O15" s="18"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="21"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -2341,7 +2625,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2350,20 +2634,18 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="V16" s="21"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -2378,27 +2660,27 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -2413,50 +2695,24 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
     </row>
-    <row r="18" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2474,213 +2730,243 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
+      <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16"/>
+      <c r="B20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12">
-        <v>44470</v>
-      </c>
-      <c r="C20" s="11">
-        <v>44471</v>
-      </c>
-      <c r="D20" s="11">
-        <v>44472</v>
-      </c>
-      <c r="E20" s="11">
-        <v>44473</v>
-      </c>
-      <c r="F20" s="11">
-        <v>44474</v>
-      </c>
-      <c r="G20" s="14">
-        <v>44475</v>
-      </c>
-      <c r="H20" s="14">
-        <v>44476</v>
-      </c>
-      <c r="I20" s="11">
-        <v>44477</v>
-      </c>
-      <c r="J20" s="11">
-        <v>44478</v>
-      </c>
-      <c r="K20" s="11">
-        <v>44479</v>
-      </c>
-      <c r="L20" s="11">
-        <v>44480</v>
-      </c>
-      <c r="M20" s="11">
-        <v>44481</v>
-      </c>
-      <c r="N20" s="14">
-        <v>44482</v>
-      </c>
-      <c r="O20" s="14">
-        <v>44483</v>
-      </c>
-      <c r="P20" s="11">
-        <v>44484</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>44485</v>
-      </c>
-      <c r="R20" s="11">
-        <v>44486</v>
-      </c>
-      <c r="S20" s="11">
-        <v>44487</v>
-      </c>
-      <c r="T20" s="11">
-        <v>44488</v>
-      </c>
-      <c r="U20" s="14">
-        <v>44489</v>
-      </c>
-      <c r="V20" s="14">
-        <v>44490</v>
-      </c>
-      <c r="W20" s="11">
-        <v>44491</v>
-      </c>
-      <c r="X20" s="11">
-        <v>44492</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>44493</v>
-      </c>
-      <c r="Z20" s="11">
-        <v>44494</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>44495</v>
-      </c>
-      <c r="AB20" s="14">
-        <v>44496</v>
-      </c>
-      <c r="AC20" s="14">
-        <v>44497</v>
-      </c>
-      <c r="AD20" s="11">
-        <v>44498</v>
-      </c>
-      <c r="AE20" s="11">
-        <v>44499</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>44500</v>
-      </c>
-      <c r="AG20" s="11">
-        <v>44501</v>
-      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="26"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="4"/>
+      <c r="B21" s="12">
+        <v>44470</v>
+      </c>
+      <c r="C21" s="11">
+        <v>44471</v>
+      </c>
+      <c r="D21" s="11">
+        <v>44472</v>
+      </c>
+      <c r="E21" s="11">
+        <v>44473</v>
+      </c>
+      <c r="F21" s="11">
+        <v>44474</v>
+      </c>
+      <c r="G21" s="14">
+        <v>44475</v>
+      </c>
+      <c r="H21" s="14">
+        <v>44476</v>
+      </c>
+      <c r="I21" s="11">
+        <v>44477</v>
+      </c>
+      <c r="J21" s="11">
+        <v>44478</v>
+      </c>
+      <c r="K21" s="11">
+        <v>44479</v>
+      </c>
+      <c r="L21" s="11">
+        <v>44480</v>
+      </c>
+      <c r="M21" s="11">
+        <v>44481</v>
+      </c>
+      <c r="N21" s="14">
+        <v>44482</v>
+      </c>
+      <c r="O21" s="14">
+        <v>44483</v>
+      </c>
+      <c r="P21" s="11">
+        <v>44484</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>44485</v>
+      </c>
+      <c r="R21" s="11">
+        <v>44486</v>
+      </c>
+      <c r="S21" s="11">
+        <v>44487</v>
+      </c>
+      <c r="T21" s="11">
+        <v>44488</v>
+      </c>
+      <c r="U21" s="14">
+        <v>44489</v>
+      </c>
+      <c r="V21" s="14">
+        <v>44490</v>
+      </c>
+      <c r="W21" s="11">
+        <v>44491</v>
+      </c>
+      <c r="X21" s="11">
+        <v>44492</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>44493</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>44494</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>44495</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>44496</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>44497</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>44498</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>44499</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>44500</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>44501</v>
+      </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
@@ -2928,7 +3214,7 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2963,9 +3249,7 @@
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="A31" s="22"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2999,77 +3283,79 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="8"/>
+    </row>
+    <row r="33" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="10"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="10"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -3141,12 +3427,47 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B20:AG20"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1441,7 +1441,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선택, 드래그 구현</t>
+    <t>선택 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2074,7 +2078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2084,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2276,11 +2280,11 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -2421,7 +2425,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
@@ -2605,7 +2609,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="18"/>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="7"/>
@@ -2641,7 +2645,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="Q16" s="20"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
@@ -2677,7 +2681,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="18"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="20"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
@@ -2779,7 +2783,9 @@
       <c r="P19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -491,6 +491,172 @@
         </r>
       </text>
     </comment>
+    <comment ref="T8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예정</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V8" authorId="0">
       <text>
         <r>
@@ -551,7 +717,46 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상일</t>
+          <t>예상일
+오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예정</t>
         </r>
       </text>
     </comment>
@@ -672,6 +877,37 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -742,8 +978,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>레터박스
-예상</t>
+          <t>레터박스</t>
         </r>
         <r>
           <rPr>
@@ -762,7 +997,27 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료일</t>
+          <t>예정
+완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -830,7 +1085,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="0">
+    <comment ref="S10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예외처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0">
+    <comment ref="T15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1147,6 +1466,51 @@
             <charset val="129"/>
           </rPr>
           <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+None, Linear </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
@@ -1214,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0">
+    <comment ref="R17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1255,26 +1619,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>패널</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> On/Off </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -1347,7 +1711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1442,6 +1806,14 @@
   </si>
   <si>
     <t>선택 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1553,7 +1925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1712,13 +2084,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,6 +2175,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2089,7 +2475,10 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2108,12 +2497,12 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B2" s="20"/>
@@ -2128,40 +2517,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -2281,8 +2670,8 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="3"/>
@@ -2353,7 +2742,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
@@ -2425,9 +2814,9 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
@@ -2464,10 +2853,9 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="20"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
@@ -2608,11 +2996,10 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="7"/>
+      <c r="O15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
       <c r="U15" s="7"/>
       <c r="V15" s="21"/>
       <c r="W15" s="7"/>
@@ -2645,9 +3032,9 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="20"/>
       <c r="V16" s="21"/>
       <c r="W16" s="7"/>
@@ -2673,17 +3060,17 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="18"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="20"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2770,10 +3157,10 @@
       <c r="K19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="28"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="7" t="s">
         <v>20</v>
       </c>
@@ -2786,8 +3173,12 @@
       <c r="Q19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2801,44 +3192,44 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
+      <c r="AG19" s="25"/>
     </row>
     <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="27"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -24,70 +24,6 @@
     <author>김민기</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F2" authorId="0">
       <text>
         <r>
@@ -280,6 +216,582 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U6" authorId="0">
       <text>
         <r>
@@ -532,7 +1044,104 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>타일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예정
+오브젝트</t>
         </r>
         <r>
           <rPr>
@@ -615,7 +1224,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>오브젝트</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -634,129 +1243,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>저장</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예정</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일
-오브젝트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러오기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예정</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -937,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="0">
+    <comment ref="S9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -978,8 +1465,92 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>키보드로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>레터박스</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -997,8 +1568,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예정
-완료</t>
+          <t>예상일
+게임</t>
         </r>
         <r>
           <rPr>
@@ -1017,7 +1588,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상일</t>
+          <t>모드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>플레이어에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고정</t>
         </r>
       </text>
     </comment>
@@ -1085,7 +1713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0">
+    <comment ref="Y11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1754,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예외처리</t>
+          <t>완료</t>
         </r>
         <r>
           <rPr>
@@ -1145,75 +1773,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료</t>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
-    <comment ref="V11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O12" authorId="0">
+    <comment ref="U12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1642,6 +2206,89 @@
         </r>
       </text>
     </comment>
+    <comment ref="S17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T17" authorId="0">
       <text>
         <r>
@@ -1703,6 +2350,89 @@
             <charset val="129"/>
           </rPr>
           <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예외처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
@@ -1711,7 +2441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1738,10 +2468,6 @@
   </si>
   <si>
     <t>맵 저장, 불러오기 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 확대, 축소, 이동 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1818,6 +2544,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 확대, 축소, 이동 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2101,7 +2831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,6 +2908,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2475,10 +3208,10 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2488,69 +3221,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="O1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="R1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="AA1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B2" s="20"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="28"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -2653,7 +3428,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2742,10 +3517,9 @@
       <c r="M8" s="7"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="S8" s="18"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -2760,7 +3534,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2779,10 +3553,9 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="20"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="20"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -2797,7 +3570,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2816,7 +3589,6 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="24"/>
-      <c r="S10" s="19"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
@@ -2834,7 +3606,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2853,12 +3625,10 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -2868,9 +3638,9 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2885,14 +3655,13 @@
       <c r="L12" s="5"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="U12" s="20"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -2907,7 +3676,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2944,7 +3713,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2981,7 +3750,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2999,7 +3768,6 @@
       <c r="O15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
       <c r="U15" s="7"/>
       <c r="V15" s="21"/>
       <c r="W15" s="7"/>
@@ -3016,7 +3784,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3035,7 +3803,6 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="20"/>
       <c r="V16" s="21"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -3051,7 +3818,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3060,18 +3827,17 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="18"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="20"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -3107,7 +3873,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -3125,59 +3891,59 @@
     </row>
     <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="M19" s="30"/>
+      <c r="N19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="S19" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -3196,40 +3962,40 @@
     </row>
     <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="28"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
@@ -3719,7 +4485,7 @@
     </row>
     <row r="33" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3829,13 +4595,6 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3860,11 +4619,13 @@
       <c r="AG36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B4:AG4"/>
     <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="L19:M19"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -2441,7 +2441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2548,6 +2548,10 @@
   </si>
   <si>
     <t>카메라 확대, 축소, 이동 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3197,7 +3201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3211,7 +3215,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3447,7 +3451,7 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="20"/>
+      <c r="T6" s="18"/>
       <c r="U6" s="20"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -3517,7 +3521,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="T8" s="20"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="20"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -3945,7 +3949,9 @@
       <c r="S19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T19" s="7"/>
+      <c r="T19" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -1072,25 +1072,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">
 </t>
         </r>
@@ -1127,6 +1108,17 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1140,46 +1132,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예정
-오브젝트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t>불러오기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예정</t>
         </r>
       </text>
     </comment>
@@ -1508,7 +1461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0">
+    <comment ref="U9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y11" authorId="0">
+    <comment ref="Z11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1777,7 +1730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U12" authorId="0">
+    <comment ref="V12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2441,7 +2394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2548,6 +2501,10 @@
   </si>
   <si>
     <t>카메라 확대, 축소, 이동 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3212,10 +3169,10 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3434,25 +3391,25 @@
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="20"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -3519,10 +3476,10 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="20"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -3552,14 +3509,13 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="18"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="18"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="7"/>
+      <c r="S9" s="19"/>
+      <c r="U9" s="19"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -3629,11 +3585,10 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="20"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
@@ -3665,7 +3620,7 @@
       <c r="R12" s="21"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -3952,7 +3907,9 @@
       <c r="T19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="7"/>
+      <c r="U19" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="V6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1065,75 +1065,6 @@
           </rPr>
           <t>저장</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러오기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-오브젝트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러오기</t>
-        </r>
       </text>
     </comment>
     <comment ref="U8" authorId="0">
@@ -1196,7 +1127,47 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예상일</t>
+          <t>예상일
+타일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기
+오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
         </r>
       </text>
     </comment>
@@ -1666,7 +1637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z11" authorId="0">
+    <comment ref="AB11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1730,7 +1701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="0">
+    <comment ref="M12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="N13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1858,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0">
+    <comment ref="T14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1919,6 +1890,51 @@
             <charset val="129"/>
           </rPr>
           <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+None, Linear </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
@@ -2017,7 +2033,26 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-None, Linear </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패널</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> On/Off </t>
         </r>
         <r>
           <rPr>
@@ -2028,6 +2063,89 @@
             <charset val="129"/>
           </rPr>
           <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
         </r>
       </text>
     </comment>
@@ -2095,218 +2213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>패널</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> On/Off </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="S17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>커서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>변경</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2394,17 +2301,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리(리지드바디) 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2417,14 +2320,6 @@
   </si>
   <si>
     <t>예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 저장, 불러오기 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자물쇠, 열쇠 시스템 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2453,10 +2348,6 @@
   </si>
   <si>
     <t>적 UI 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 구역(중력, 얼음) 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2500,7 +2391,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카메라 확대, 축소, 이동 구현</t>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2509,6 +2400,30 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리(리지드바디)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 저장, 불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 확대, 축소, 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 활용(중력, 얼음, 로프 등등)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2616,7 +2531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2786,13 +2701,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2872,6 +2800,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3158,7 +3089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3166,67 +3097,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="33" width="7.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="O1" s="26" t="s">
-        <v>5</v>
-      </c>
       <c r="P1" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="AA1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="AA1" s="26" t="s">
-        <v>5</v>
-      </c>
       <c r="AB1" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C2" s="20"/>
@@ -3253,40 +3184,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="29"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -3389,7 +3320,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3410,7 +3341,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
-      <c r="V6" s="3"/>
+      <c r="V6" s="19"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -3425,7 +3356,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="5"/>
@@ -3451,7 +3382,6 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -3462,7 +3392,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3495,7 +3425,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3530,7 +3460,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3549,6 +3479,7 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="24"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
@@ -3566,7 +3497,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3585,21 +3516,20 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="18"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>7</v>
+      <c r="A12" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3608,19 +3538,20 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="V12" s="20"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -3635,7 +3566,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3644,11 +3575,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="21"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="19"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -3672,7 +3603,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3682,19 +3613,16 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="S14" s="19"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="21"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -3709,7 +3637,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3724,10 +3652,10 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="19"/>
+      <c r="O15" s="21"/>
       <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="U15" s="7"/>
       <c r="V15" s="21"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -3743,7 +3671,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3752,17 +3680,19 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="V16" s="21"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -3777,31 +3707,32 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="19"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="20"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -3811,33 +3742,77 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -3846,253 +3821,213 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="8"/>
+      <c r="AG18" s="25"/>
     </row>
     <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="25"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="29"/>
     </row>
-    <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
-      <c r="B20" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="28"/>
+      <c r="B20" s="12">
+        <v>44470</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44471</v>
+      </c>
+      <c r="D20" s="11">
+        <v>44472</v>
+      </c>
+      <c r="E20" s="11">
+        <v>44473</v>
+      </c>
+      <c r="F20" s="11">
+        <v>44474</v>
+      </c>
+      <c r="G20" s="14">
+        <v>44475</v>
+      </c>
+      <c r="H20" s="14">
+        <v>44476</v>
+      </c>
+      <c r="I20" s="11">
+        <v>44477</v>
+      </c>
+      <c r="J20" s="11">
+        <v>44478</v>
+      </c>
+      <c r="K20" s="11">
+        <v>44479</v>
+      </c>
+      <c r="L20" s="11">
+        <v>44480</v>
+      </c>
+      <c r="M20" s="11">
+        <v>44481</v>
+      </c>
+      <c r="N20" s="14">
+        <v>44482</v>
+      </c>
+      <c r="O20" s="14">
+        <v>44483</v>
+      </c>
+      <c r="P20" s="11">
+        <v>44484</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>44485</v>
+      </c>
+      <c r="R20" s="11">
+        <v>44486</v>
+      </c>
+      <c r="S20" s="11">
+        <v>44487</v>
+      </c>
+      <c r="T20" s="11">
+        <v>44488</v>
+      </c>
+      <c r="U20" s="14">
+        <v>44489</v>
+      </c>
+      <c r="V20" s="14">
+        <v>44490</v>
+      </c>
+      <c r="W20" s="11">
+        <v>44491</v>
+      </c>
+      <c r="X20" s="11">
+        <v>44492</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>44493</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>44494</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>44495</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>44496</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>44497</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>44498</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>44499</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>44500</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>44501</v>
+      </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
-      <c r="B21" s="12">
-        <v>44470</v>
-      </c>
-      <c r="C21" s="11">
-        <v>44471</v>
-      </c>
-      <c r="D21" s="11">
-        <v>44472</v>
-      </c>
-      <c r="E21" s="11">
-        <v>44473</v>
-      </c>
-      <c r="F21" s="11">
-        <v>44474</v>
-      </c>
-      <c r="G21" s="14">
-        <v>44475</v>
-      </c>
-      <c r="H21" s="14">
-        <v>44476</v>
-      </c>
-      <c r="I21" s="11">
-        <v>44477</v>
-      </c>
-      <c r="J21" s="11">
-        <v>44478</v>
-      </c>
-      <c r="K21" s="11">
-        <v>44479</v>
-      </c>
-      <c r="L21" s="11">
-        <v>44480</v>
-      </c>
-      <c r="M21" s="11">
-        <v>44481</v>
-      </c>
-      <c r="N21" s="14">
-        <v>44482</v>
-      </c>
-      <c r="O21" s="14">
-        <v>44483</v>
-      </c>
-      <c r="P21" s="11">
-        <v>44484</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>44485</v>
-      </c>
-      <c r="R21" s="11">
-        <v>44486</v>
-      </c>
-      <c r="S21" s="11">
-        <v>44487</v>
-      </c>
-      <c r="T21" s="11">
-        <v>44488</v>
-      </c>
-      <c r="U21" s="14">
-        <v>44489</v>
-      </c>
-      <c r="V21" s="14">
-        <v>44490</v>
-      </c>
-      <c r="W21" s="11">
-        <v>44491</v>
-      </c>
-      <c r="X21" s="11">
-        <v>44492</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>44493</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>44494</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>44495</v>
-      </c>
-      <c r="AB21" s="14">
-        <v>44496</v>
-      </c>
-      <c r="AC21" s="14">
-        <v>44497</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>44498</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>44499</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>44500</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>44501</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
@@ -4340,7 +4275,7 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4375,7 +4310,9 @@
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
+      <c r="A31" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4409,79 +4346,77 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="8"/>
+    <row r="32" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="10"/>
     </row>
-    <row r="33" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="10"/>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -4523,13 +4458,6 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -4553,40 +4481,12 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="B19:AG19"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="R1:U1"/>
   </mergeCells>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -1171,6 +1171,433 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">생성
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - CSV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(XML</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만으로도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인터페이스화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>매니져에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>담당하게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N9" authorId="0">
       <text>
         <r>
@@ -1634,6 +2061,89 @@
             <charset val="129"/>
           </rPr>
           <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중력구역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
@@ -3089,7 +3599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3100,10 +3610,10 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3413,7 +3923,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -3518,7 +4028,7 @@
       <c r="R11" s="21"/>
       <c r="W11" s="7"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="20"/>
+      <c r="Y11" s="18"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
@@ -3732,7 +4242,7 @@
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -2064,7 +2064,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y11" authorId="0">
+    <comment ref="AC11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2147,7 +2211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB11" authorId="0">
+    <comment ref="Z13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2209,9 +2273,67 @@
           </rPr>
           <t>예상일</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중력구역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="AA14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2275,7 +2397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="M15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2339,7 +2461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T14" authorId="0">
+    <comment ref="N16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2403,7 +2525,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0">
+    <comment ref="T17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2448,7 +2634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="0">
+    <comment ref="T18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2512,7 +2698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0">
+    <comment ref="R19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2576,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S16" authorId="0">
+    <comment ref="S19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2659,7 +2845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T16" authorId="0">
+    <comment ref="T19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0">
+    <comment ref="S20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2811,7 +2997,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2933,7 +3119,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물리 활용(중력, 얼음, 로프 등등)</t>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력 구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undo, Redo 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3003,7 +3205,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3037,6 +3239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3230,7 +3438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3312,7 +3520,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3325,6 +3542,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3607,13 +3827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3632,12 +3852,12 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
@@ -3647,12 +3867,12 @@
       <c r="Q1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
       <c r="AA1" s="26" t="s">
         <v>4</v>
       </c>
@@ -3662,12 +3882,12 @@
       <c r="AC1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C2" s="20"/>
@@ -3694,40 +3914,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="32"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -3809,10 +4029,10 @@
       <c r="AA5" s="11">
         <v>44463</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="14">
         <v>44464</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="14">
         <v>44465</v>
       </c>
       <c r="AD5" s="11">
@@ -3821,10 +4041,10 @@
       <c r="AE5" s="11">
         <v>44467</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="35">
         <v>44468</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="35">
         <v>44469</v>
       </c>
     </row>
@@ -3934,7 +4154,7 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5"/>
@@ -3969,7 +4189,7 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5"/>
@@ -4006,8 +4226,8 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>30</v>
+      <c r="A11" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4018,28 +4238,33 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
-        <v>9</v>
+      <c r="A12" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4048,35 +4273,31 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="5"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="21"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="18"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="8"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
-        <v>10</v>
+      <c r="A13" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4086,26 +4307,21 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -4113,7 +4329,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4124,30 +4340,28 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="21"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
+      <c r="AA14" s="20"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
-        <v>11</v>
+      <c r="A15" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4156,17 +4370,20 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="21"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="V15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -4180,8 +4397,8 @@
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
-        <v>12</v>
+      <c r="A16" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4190,17 +4407,18 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -4216,32 +4434,29 @@
       <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="A17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="19"/>
+      <c r="Q17" s="19"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -4252,77 +4467,30 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
     </row>
-    <row r="18" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>26</v>
-      </c>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -4331,283 +4499,334 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="25"/>
+      <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16"/>
-      <c r="B19" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="29"/>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12">
-        <v>44470</v>
-      </c>
-      <c r="C20" s="11">
-        <v>44471</v>
-      </c>
-      <c r="D20" s="11">
-        <v>44472</v>
-      </c>
-      <c r="E20" s="11">
-        <v>44473</v>
-      </c>
-      <c r="F20" s="11">
-        <v>44474</v>
-      </c>
-      <c r="G20" s="14">
-        <v>44475</v>
-      </c>
-      <c r="H20" s="14">
-        <v>44476</v>
-      </c>
-      <c r="I20" s="11">
-        <v>44477</v>
-      </c>
-      <c r="J20" s="11">
-        <v>44478</v>
-      </c>
-      <c r="K20" s="11">
-        <v>44479</v>
-      </c>
-      <c r="L20" s="11">
-        <v>44480</v>
-      </c>
-      <c r="M20" s="11">
-        <v>44481</v>
-      </c>
-      <c r="N20" s="14">
-        <v>44482</v>
-      </c>
-      <c r="O20" s="14">
-        <v>44483</v>
-      </c>
-      <c r="P20" s="11">
-        <v>44484</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>44485</v>
-      </c>
-      <c r="R20" s="11">
-        <v>44486</v>
-      </c>
-      <c r="S20" s="11">
-        <v>44487</v>
-      </c>
-      <c r="T20" s="11">
-        <v>44488</v>
-      </c>
-      <c r="U20" s="14">
-        <v>44489</v>
-      </c>
-      <c r="V20" s="14">
-        <v>44490</v>
-      </c>
-      <c r="W20" s="11">
-        <v>44491</v>
-      </c>
-      <c r="X20" s="11">
-        <v>44492</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>44493</v>
-      </c>
-      <c r="Z20" s="11">
-        <v>44494</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>44495</v>
-      </c>
-      <c r="AB20" s="14">
-        <v>44496</v>
-      </c>
-      <c r="AC20" s="14">
-        <v>44497</v>
-      </c>
-      <c r="AD20" s="11">
-        <v>44498</v>
-      </c>
-      <c r="AE20" s="11">
-        <v>44499</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>44500</v>
-      </c>
-      <c r="AG20" s="11">
-        <v>44501</v>
-      </c>
+      <c r="A20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="4"/>
+    <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="25"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="8"/>
+      <c r="B22" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="32"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="8"/>
+      <c r="B23" s="12">
+        <v>44470</v>
+      </c>
+      <c r="C23" s="14">
+        <v>44471</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44472</v>
+      </c>
+      <c r="E23" s="11">
+        <v>44473</v>
+      </c>
+      <c r="F23" s="11">
+        <v>44474</v>
+      </c>
+      <c r="G23" s="35">
+        <v>44475</v>
+      </c>
+      <c r="H23" s="35">
+        <v>44476</v>
+      </c>
+      <c r="I23" s="35">
+        <v>44477</v>
+      </c>
+      <c r="J23" s="14">
+        <v>44478</v>
+      </c>
+      <c r="K23" s="14">
+        <v>44479</v>
+      </c>
+      <c r="L23" s="35">
+        <v>44480</v>
+      </c>
+      <c r="M23" s="35">
+        <v>44481</v>
+      </c>
+      <c r="N23" s="35">
+        <v>44482</v>
+      </c>
+      <c r="O23" s="35">
+        <v>44483</v>
+      </c>
+      <c r="P23" s="35">
+        <v>44484</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>44485</v>
+      </c>
+      <c r="R23" s="14">
+        <v>44486</v>
+      </c>
+      <c r="S23" s="35">
+        <v>44487</v>
+      </c>
+      <c r="T23" s="35">
+        <v>44488</v>
+      </c>
+      <c r="U23" s="35">
+        <v>44489</v>
+      </c>
+      <c r="V23" s="35">
+        <v>44490</v>
+      </c>
+      <c r="W23" s="35">
+        <v>44491</v>
+      </c>
+      <c r="X23" s="14">
+        <v>44492</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>44493</v>
+      </c>
+      <c r="Z23" s="35">
+        <v>44494</v>
+      </c>
+      <c r="AA23" s="35">
+        <v>44495</v>
+      </c>
+      <c r="AB23" s="35">
+        <v>44496</v>
+      </c>
+      <c r="AC23" s="35">
+        <v>44497</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>44498</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>44499</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>44500</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>44501</v>
+      </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
@@ -4785,7 +5004,7 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4820,9 +5039,7 @@
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="16"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4856,147 +5073,254 @@
       <c r="AF31" s="7"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="10"/>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="8"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
+      <c r="A34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="8"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
+    <row r="35" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="10"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B22:AG22"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="R1:U1"/>
   </mergeCells>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -1598,6 +1598,165 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에디트플레이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모드에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클리어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시에만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능하게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N9" authorId="0">
       <text>
         <r>
@@ -2064,7 +2223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC11" authorId="0">
+    <comment ref="AD11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2333,7 +2492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA14" authorId="0">
+    <comment ref="AB14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2845,7 +3004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T19" authorId="0">
+    <comment ref="Z19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2876,40 +3035,49 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&amp;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0">
+    <comment ref="S21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2997,7 +3165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3136,6 +3304,10 @@
   </si>
   <si>
     <t>Undo, Redo 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3532,6 +3704,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3542,9 +3717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3819,7 +3991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3827,13 +3999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3852,12 +4024,12 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="O1" s="26" t="s">
         <v>4</v>
       </c>
@@ -3867,12 +4039,12 @@
       <c r="Q1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
       <c r="AA1" s="26" t="s">
         <v>4</v>
       </c>
@@ -3882,12 +4054,12 @@
       <c r="AC1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C2" s="20"/>
@@ -3914,40 +4086,40 @@
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -4041,10 +4213,10 @@
       <c r="AE5" s="11">
         <v>44467</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AF5" s="31">
         <v>44468</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AG5" s="31">
         <v>44469</v>
       </c>
     </row>
@@ -4144,7 +4316,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="19"/>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -4254,13 +4426,12 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="20"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="8"/>
+      <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
@@ -4287,9 +4458,8 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="20"/>
+      <c r="AC12" s="7"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
@@ -4320,12 +4490,11 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
-      <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="AC13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-      <c r="AG13" s="8"/>
+      <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
@@ -4352,12 +4521,11 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="7"/>
-      <c r="AD14" s="7"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="8"/>
+      <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="29" t="s">
@@ -4528,8 +4696,8 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="20"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
@@ -4538,16 +4706,16 @@
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="A20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -4558,15 +4726,14 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="7"/>
+      <c r="S20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="20"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
@@ -4574,80 +4741,34 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
@@ -4655,213 +4776,261 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="25"/>
+      <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="25"/>
+    </row>
+    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16"/>
+      <c r="B23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="32"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12">
-        <v>44470</v>
-      </c>
-      <c r="C23" s="14">
-        <v>44471</v>
-      </c>
-      <c r="D23" s="14">
-        <v>44472</v>
-      </c>
-      <c r="E23" s="11">
-        <v>44473</v>
-      </c>
-      <c r="F23" s="11">
-        <v>44474</v>
-      </c>
-      <c r="G23" s="35">
-        <v>44475</v>
-      </c>
-      <c r="H23" s="35">
-        <v>44476</v>
-      </c>
-      <c r="I23" s="35">
-        <v>44477</v>
-      </c>
-      <c r="J23" s="14">
-        <v>44478</v>
-      </c>
-      <c r="K23" s="14">
-        <v>44479</v>
-      </c>
-      <c r="L23" s="35">
-        <v>44480</v>
-      </c>
-      <c r="M23" s="35">
-        <v>44481</v>
-      </c>
-      <c r="N23" s="35">
-        <v>44482</v>
-      </c>
-      <c r="O23" s="35">
-        <v>44483</v>
-      </c>
-      <c r="P23" s="35">
-        <v>44484</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>44485</v>
-      </c>
-      <c r="R23" s="14">
-        <v>44486</v>
-      </c>
-      <c r="S23" s="35">
-        <v>44487</v>
-      </c>
-      <c r="T23" s="35">
-        <v>44488</v>
-      </c>
-      <c r="U23" s="35">
-        <v>44489</v>
-      </c>
-      <c r="V23" s="35">
-        <v>44490</v>
-      </c>
-      <c r="W23" s="35">
-        <v>44491</v>
-      </c>
-      <c r="X23" s="14">
-        <v>44492</v>
-      </c>
-      <c r="Y23" s="14">
-        <v>44493</v>
-      </c>
-      <c r="Z23" s="35">
-        <v>44494</v>
-      </c>
-      <c r="AA23" s="35">
-        <v>44495</v>
-      </c>
-      <c r="AB23" s="35">
-        <v>44496</v>
-      </c>
-      <c r="AC23" s="35">
-        <v>44497</v>
-      </c>
-      <c r="AD23" s="11">
-        <v>44498</v>
-      </c>
-      <c r="AE23" s="14">
-        <v>44499</v>
-      </c>
-      <c r="AF23" s="14">
-        <v>44500</v>
-      </c>
-      <c r="AG23" s="11">
-        <v>44501</v>
-      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="33"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="4"/>
+      <c r="B24" s="12">
+        <v>44470</v>
+      </c>
+      <c r="C24" s="14">
+        <v>44471</v>
+      </c>
+      <c r="D24" s="14">
+        <v>44472</v>
+      </c>
+      <c r="E24" s="11">
+        <v>44473</v>
+      </c>
+      <c r="F24" s="11">
+        <v>44474</v>
+      </c>
+      <c r="G24" s="31">
+        <v>44475</v>
+      </c>
+      <c r="H24" s="31">
+        <v>44476</v>
+      </c>
+      <c r="I24" s="31">
+        <v>44477</v>
+      </c>
+      <c r="J24" s="14">
+        <v>44478</v>
+      </c>
+      <c r="K24" s="14">
+        <v>44479</v>
+      </c>
+      <c r="L24" s="31">
+        <v>44480</v>
+      </c>
+      <c r="M24" s="31">
+        <v>44481</v>
+      </c>
+      <c r="N24" s="31">
+        <v>44482</v>
+      </c>
+      <c r="O24" s="31">
+        <v>44483</v>
+      </c>
+      <c r="P24" s="31">
+        <v>44484</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>44485</v>
+      </c>
+      <c r="R24" s="14">
+        <v>44486</v>
+      </c>
+      <c r="S24" s="31">
+        <v>44487</v>
+      </c>
+      <c r="T24" s="31">
+        <v>44488</v>
+      </c>
+      <c r="U24" s="31">
+        <v>44489</v>
+      </c>
+      <c r="V24" s="31">
+        <v>44490</v>
+      </c>
+      <c r="W24" s="31">
+        <v>44491</v>
+      </c>
+      <c r="X24" s="14">
+        <v>44492</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>44493</v>
+      </c>
+      <c r="Z24" s="31">
+        <v>44494</v>
+      </c>
+      <c r="AA24" s="31">
+        <v>44495</v>
+      </c>
+      <c r="AB24" s="31">
+        <v>44496</v>
+      </c>
+      <c r="AC24" s="31">
+        <v>44497</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>44498</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>44499</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>44500</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>44501</v>
+      </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
@@ -5109,7 +5278,7 @@
       <c r="AG32" s="8"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="22"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -5144,9 +5313,7 @@
       <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A34" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="A34" s="22"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -5180,77 +5347,79 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="8"/>
     </row>
-    <row r="35" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="8"/>
+    </row>
+    <row r="36" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="10"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="10"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
@@ -5292,6 +5461,13 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -5315,12 +5491,40 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B22:AG22"/>
+    <mergeCell ref="B23:AG23"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="R1:U1"/>
   </mergeCells>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -2223,7 +2223,90 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD11" authorId="0">
+    <comment ref="Y11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중력구역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2285,9 +2368,579 @@
           </rPr>
           <t>예상일</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중력구역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Y13" authorId="0">
+    <comment ref="AB12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+None, Linear </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패널</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> On/Off </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,596 +2981,35 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>중력구역</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구현</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
- - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중력구역</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>옵션</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-None, Linear </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>패널</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> On/Off </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
+          <t>저장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&amp;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러오기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
         </r>
       </text>
     </comment>
@@ -2962,122 +3054,49 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>커서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>변경</t>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예외처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김민기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
- - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>저장</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&amp;</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러오기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> UI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S21" authorId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3118,45 +3137,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선택</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예외처리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예상일</t>
         </r>
       </text>
     </comment>
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3308,6 +3308,18 @@
   </si>
   <si>
     <t>메인 메뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 프로젝트 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 구조 개선(리팩토링)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3610,7 +3622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3686,9 +3698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3707,6 +3716,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3717,6 +3729,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3991,7 +4006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3999,13 +4014,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4030,13 +4045,13 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="34" t="s">
@@ -4045,13 +4060,13 @@
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
       <c r="U1" s="34"/>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="AD1" s="34" t="s">
@@ -4213,10 +4228,10 @@
       <c r="AE5" s="11">
         <v>44467</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="30">
         <v>44468</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="30">
         <v>44469</v>
       </c>
     </row>
@@ -4326,7 +4341,7 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5"/>
@@ -4361,7 +4376,7 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5"/>
@@ -4398,8 +4413,8 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
-        <v>34</v>
+      <c r="A11" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4410,32 +4425,27 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
+      <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>33</v>
+      <c r="A12" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4446,28 +4456,27 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="21"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="18"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="19"/>
       <c r="AC12" s="7"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4476,29 +4485,35 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="27"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
+      <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
-        <v>32</v>
+      <c r="A14" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4508,28 +4523,34 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="27"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AB14" s="20"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
+      <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
-        <v>9</v>
+      <c r="A15" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4538,20 +4559,17 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="S15" s="19"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="V15" s="21"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -4565,8 +4583,8 @@
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="28" t="s">
-        <v>10</v>
+      <c r="A16" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4576,19 +4594,16 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="19"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="V16" s="21"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -4602,8 +4617,8 @@
       <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
-        <v>5</v>
+      <c r="A17" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4612,32 +4627,31 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="19"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
       <c r="S17" s="19"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="21"/>
+      <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
+      <c r="Z17" s="18"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
-        <v>11</v>
+      <c r="A18" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4646,58 +4660,58 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="V18" s="21"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="A19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="19"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="19"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="20"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
@@ -4705,332 +4719,331 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="8"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="8"/>
+    <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="36"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="8"/>
+    <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16"/>
+      <c r="B21" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="33"/>
     </row>
-    <row r="22" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="25"/>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="12">
+        <v>44470</v>
+      </c>
+      <c r="C22" s="14">
+        <v>44471</v>
+      </c>
+      <c r="D22" s="14">
+        <v>44472</v>
+      </c>
+      <c r="E22" s="11">
+        <v>44473</v>
+      </c>
+      <c r="F22" s="11">
+        <v>44474</v>
+      </c>
+      <c r="G22" s="30">
+        <v>44475</v>
+      </c>
+      <c r="H22" s="30">
+        <v>44476</v>
+      </c>
+      <c r="I22" s="30">
+        <v>44477</v>
+      </c>
+      <c r="J22" s="14">
+        <v>44478</v>
+      </c>
+      <c r="K22" s="14">
+        <v>44479</v>
+      </c>
+      <c r="L22" s="30">
+        <v>44480</v>
+      </c>
+      <c r="M22" s="30">
+        <v>44481</v>
+      </c>
+      <c r="N22" s="30">
+        <v>44482</v>
+      </c>
+      <c r="O22" s="30">
+        <v>44483</v>
+      </c>
+      <c r="P22" s="30">
+        <v>44484</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>44485</v>
+      </c>
+      <c r="R22" s="14">
+        <v>44486</v>
+      </c>
+      <c r="S22" s="30">
+        <v>44487</v>
+      </c>
+      <c r="T22" s="30">
+        <v>44488</v>
+      </c>
+      <c r="U22" s="30">
+        <v>44489</v>
+      </c>
+      <c r="V22" s="30">
+        <v>44490</v>
+      </c>
+      <c r="W22" s="30">
+        <v>44491</v>
+      </c>
+      <c r="X22" s="14">
+        <v>44492</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>44493</v>
+      </c>
+      <c r="Z22" s="30">
+        <v>44494</v>
+      </c>
+      <c r="AA22" s="30">
+        <v>44495</v>
+      </c>
+      <c r="AB22" s="30">
+        <v>44496</v>
+      </c>
+      <c r="AC22" s="30">
+        <v>44497</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>44498</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>44499</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>44500</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>44501</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16"/>
-      <c r="B23" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="33"/>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12">
-        <v>44470</v>
-      </c>
-      <c r="C24" s="14">
-        <v>44471</v>
-      </c>
-      <c r="D24" s="14">
-        <v>44472</v>
-      </c>
-      <c r="E24" s="11">
-        <v>44473</v>
-      </c>
-      <c r="F24" s="11">
-        <v>44474</v>
-      </c>
-      <c r="G24" s="31">
-        <v>44475</v>
-      </c>
-      <c r="H24" s="31">
-        <v>44476</v>
-      </c>
-      <c r="I24" s="31">
-        <v>44477</v>
-      </c>
-      <c r="J24" s="14">
-        <v>44478</v>
-      </c>
-      <c r="K24" s="14">
-        <v>44479</v>
-      </c>
-      <c r="L24" s="31">
-        <v>44480</v>
-      </c>
-      <c r="M24" s="31">
-        <v>44481</v>
-      </c>
-      <c r="N24" s="31">
-        <v>44482</v>
-      </c>
-      <c r="O24" s="31">
-        <v>44483</v>
-      </c>
-      <c r="P24" s="31">
-        <v>44484</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>44485</v>
-      </c>
-      <c r="R24" s="14">
-        <v>44486</v>
-      </c>
-      <c r="S24" s="31">
-        <v>44487</v>
-      </c>
-      <c r="T24" s="31">
-        <v>44488</v>
-      </c>
-      <c r="U24" s="31">
-        <v>44489</v>
-      </c>
-      <c r="V24" s="31">
-        <v>44490</v>
-      </c>
-      <c r="W24" s="31">
-        <v>44491</v>
-      </c>
-      <c r="X24" s="14">
-        <v>44492</v>
-      </c>
-      <c r="Y24" s="14">
-        <v>44493</v>
-      </c>
-      <c r="Z24" s="31">
-        <v>44494</v>
-      </c>
-      <c r="AA24" s="31">
-        <v>44495</v>
-      </c>
-      <c r="AB24" s="31">
-        <v>44496</v>
-      </c>
-      <c r="AC24" s="31">
-        <v>44497</v>
-      </c>
-      <c r="AD24" s="11">
-        <v>44498</v>
-      </c>
-      <c r="AE24" s="14">
-        <v>44499</v>
-      </c>
-      <c r="AF24" s="14">
-        <v>44500</v>
-      </c>
-      <c r="AG24" s="11">
-        <v>44501</v>
-      </c>
+      <c r="A24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="8"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
@@ -5243,7 +5256,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -5278,7 +5291,9 @@
       <c r="AG32" s="8"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
+      <c r="A33" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -5312,127 +5327,118 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="8"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A34" s="22"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="8"/>
+    <row r="34" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="10"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="8"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="10"/>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -5456,77 +5462,15 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B23:AG23"/>
+    <mergeCell ref="B21:AG21"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AC20:AG20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -2428,7 +2428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB12" authorId="0">
+    <comment ref="AD12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3013,6 +3013,327 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>베이스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">제작
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - Physics2D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클래스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제작</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - AABB </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - Circle vs Circle </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌체크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - OBB </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S19" authorId="0">
       <text>
         <r>
@@ -3096,7 +3417,494 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - OBB </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - OBB </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수직인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벡터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이용하게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - OBB vs Circle </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌체크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - OBB vs Circle </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>감지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - OverlapPoint </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3212,10 +4020,6 @@
   </si>
   <si>
     <t>적 UI 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 UI 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3299,15 +4103,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>로프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Undo, Redo 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 메뉴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3319,7 +4115,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게임 구조 개선(리팩토링)</t>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리(충돌 감지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리에 집중하기 위하여 다른 프로젝트 생성하여 작업</t>
+  </si>
+  <si>
+    <t>물리에 집중하기 위하여 다른 프로젝트 생성하여 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 UI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리(레이캐스트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 프로젝트에 작업한 내용 본 프로젝트에 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3389,7 +4208,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3432,8 +4251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3534,21 +4359,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -3616,13 +4426,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3671,9 +4505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3689,10 +4520,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3704,13 +4535,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3728,10 +4559,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4006,7 +4861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4017,10 +4872,10 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4039,105 +4894,105 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="O1" s="25" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="O1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="AA1" s="25" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="AA1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C2" s="20"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="18"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="18"/>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="32"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="12">
         <v>44438</v>
       </c>
@@ -4228,37 +5083,37 @@
       <c r="AE5" s="11">
         <v>44467</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="29">
         <v>44468</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="29">
         <v>44469</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -4272,16 +5127,16 @@
       <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -4308,8 +5163,8 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
-        <v>28</v>
+      <c r="A8" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4320,18 +5175,18 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -4341,8 +5196,8 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
-        <v>29</v>
+      <c r="A9" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4353,16 +5208,16 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="18"/>
+      <c r="U9" s="18"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -4376,8 +5231,8 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
-        <v>18</v>
+      <c r="A10" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4388,18 +5243,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -4413,8 +5268,8 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
+      <c r="A11" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4425,18 +5280,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="26"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="26"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AE11" s="7"/>
@@ -4444,8 +5299,8 @@
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
-        <v>32</v>
+      <c r="A12" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4456,26 +5311,27 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="26"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
@@ -4485,16 +5341,16 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -4512,7 +5368,7 @@
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5"/>
@@ -4523,15 +5379,15 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -4549,7 +5405,7 @@
       <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
@@ -4561,15 +5417,15 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="S15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="S15" s="18"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="21"/>
+      <c r="V15" s="20"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -4583,7 +5439,7 @@
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5"/>
@@ -4595,15 +5451,15 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="V16" s="21"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="V16" s="20"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -4617,8 +5473,8 @@
       <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
-        <v>12</v>
+      <c r="A17" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4627,17 +5483,17 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -4650,8 +5506,8 @@
       <c r="AG17" s="8"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
-        <v>35</v>
+      <c r="A18" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4678,12 +5534,11 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="8"/>
+      <c r="AE18" s="18"/>
+      <c r="AG18" s="18"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
@@ -4703,12 +5558,12 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="19"/>
+      <c r="S19" s="18"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -4720,135 +5575,139 @@
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="M20" s="34"/>
+      <c r="N20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="S20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="T20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="U20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="V20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="X20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Y20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="36"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="35"/>
     </row>
     <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="16"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="32"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="12">
         <v>44470</v>
       </c>
@@ -4864,13 +5723,13 @@
       <c r="F22" s="11">
         <v>44474</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>44475</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <v>44476</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>44477</v>
       </c>
       <c r="J22" s="14">
@@ -4879,19 +5738,19 @@
       <c r="K22" s="14">
         <v>44479</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="29">
         <v>44480</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="29">
         <v>44481</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="29">
         <v>44482</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="29">
         <v>44483</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="29">
         <v>44484</v>
       </c>
       <c r="Q22" s="14">
@@ -4900,19 +5759,19 @@
       <c r="R22" s="14">
         <v>44486</v>
       </c>
-      <c r="S22" s="30">
+      <c r="S22" s="29">
         <v>44487</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T22" s="29">
         <v>44488</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="29">
         <v>44489</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="29">
         <v>44490</v>
       </c>
-      <c r="W22" s="30">
+      <c r="W22" s="29">
         <v>44491</v>
       </c>
       <c r="X22" s="14">
@@ -4921,16 +5780,16 @@
       <c r="Y22" s="14">
         <v>44493</v>
       </c>
-      <c r="Z22" s="30">
+      <c r="Z22" s="29">
         <v>44494</v>
       </c>
-      <c r="AA22" s="30">
+      <c r="AA22" s="29">
         <v>44495</v>
       </c>
-      <c r="AB22" s="30">
+      <c r="AB22" s="29">
         <v>44496</v>
       </c>
-      <c r="AC22" s="30">
+      <c r="AC22" s="29">
         <v>44497</v>
       </c>
       <c r="AD22" s="11">
@@ -4947,106 +5806,84 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="8"/>
+      <c r="A23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="38"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
+      <c r="A24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
       <c r="AG24" s="8"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5081,7 +5918,7 @@
       <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5116,7 +5953,7 @@
       <c r="AG27" s="8"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -5151,7 +5988,7 @@
       <c r="AG28" s="8"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -5186,7 +6023,7 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -5221,7 +6058,7 @@
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -5256,7 +6093,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -5291,7 +6128,7 @@
       <c r="AG32" s="8"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="7"/>
@@ -5302,8 +6139,8 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -5328,13 +6165,19 @@
       <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -5463,14 +6306,17 @@
       <c r="AG37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B4:AG4"/>
     <mergeCell ref="B21:AG21"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="AE20:AG20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -3763,7 +3763,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - OverlapPoint </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3804,107 +3849,184 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>내가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>만든</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>충돌</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>감지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
- - OverlapPoint </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>완료</t>
+          <t>버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="0">
+    <comment ref="S23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - OverlapBox </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제작</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - Raycast </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제작</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3945,26 +4067,923 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> vs </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>완료</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예상일</t>
+      </text>
+    </comment>
+    <comment ref="T24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> vs </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> vs </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> vs </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>감지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>물리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(Dynamic, Kinematic, Static) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Enter, Stay, Exit </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">추가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유니티</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">제거
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Undo, Redo </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
         </r>
       </text>
     </comment>
@@ -3973,7 +4992,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4103,15 +5122,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Undo, Redo 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 프로젝트 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4123,22 +5134,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물리에 집중하기 위하여 다른 프로젝트 생성하여 작업</t>
-  </si>
-  <si>
-    <t>물리에 집중하기 위하여 다른 프로젝트 생성하여 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공통 UI 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물리(레이캐스트)</t>
+    <t>물리(충돌 처리(이동))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다른 프로젝트에 작업한 내용 본 프로젝트에 적용</t>
+    <t>다른 프로젝트에서 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 프로젝트 정리(리팩토링)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 프로젝트에서 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 프로젝트에서 작업한 내용 본 프로젝트에 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리(적용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undo, Redo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4146,7 +5198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4207,8 +5259,32 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4218,12 +5294,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4258,7 +5328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4293,15 +5363,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4440,14 +5501,105 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4456,7 +5608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4484,46 +5636,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4535,25 +5675,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4562,31 +5711,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4869,13 +6066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4894,226 +6091,226 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="O1" s="24" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="O1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="AA1" s="24" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="AA1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C2" s="19"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="18"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="15"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="15"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="15"/>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="39"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="40"/>
-      <c r="B5" s="12">
+      <c r="A5" s="48"/>
+      <c r="B5" s="10">
         <v>44438</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>44439</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>44440</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>44441</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>44442</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>44443</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>44444</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>44445</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>44446</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>44447</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>44448</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>44449</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <v>44450</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="11">
         <v>44451</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>44452</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <v>44453</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <v>44454</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>44455</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="9">
         <v>44456</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="11">
         <v>44457</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="11">
         <v>44458</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="9">
         <v>44459</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="9">
         <v>44460</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="9">
         <v>44461</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="9">
         <v>44462</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="9">
         <v>44463</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="11">
         <v>44464</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="11">
         <v>44465</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="9">
         <v>44466</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="9">
         <v>44467</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="25">
         <v>44468</v>
       </c>
-      <c r="AG5" s="29">
+      <c r="AG5" s="25">
         <v>44469</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -5127,16 +6324,16 @@
       <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -5163,7 +6360,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5"/>
@@ -5175,18 +6372,18 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -5196,7 +6393,7 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5"/>
@@ -5208,16 +6405,16 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="15"/>
+      <c r="U9" s="15"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -5231,7 +6428,7 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5"/>
@@ -5243,18 +6440,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -5268,7 +6465,7 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="5"/>
@@ -5280,18 +6477,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="25"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AE11" s="7"/>
@@ -5299,7 +6496,7 @@
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5"/>
@@ -5311,27 +6508,27 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="25"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
@@ -5341,16 +6538,16 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -5368,7 +6565,7 @@
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5"/>
@@ -5379,15 +6576,15 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -5405,7 +6602,7 @@
       <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
@@ -5417,15 +6614,15 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="S15" s="15"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="20"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -5439,7 +6636,7 @@
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5"/>
@@ -5451,15 +6648,15 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="V16" s="20"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -5473,8 +6670,8 @@
       <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
-        <v>39</v>
+      <c r="A17" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5483,31 +6680,31 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="18"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="18"/>
+      <c r="Z17" s="15"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
-        <v>36</v>
+      <c r="A18" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5534,11 +6731,11 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="18"/>
-      <c r="AG18" s="18"/>
+      <c r="AE18" s="15"/>
+      <c r="AG18" s="15"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
@@ -5558,12 +6755,12 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="18"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -5575,7 +6772,7 @@
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5608,10 +6805,10 @@
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="34"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="7" t="s">
         <v>14</v>
       </c>
@@ -5649,249 +6846,256 @@
         <v>29</v>
       </c>
       <c r="Z20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AA20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AD20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AC20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="35"/>
+      <c r="AE20" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="46"/>
     </row>
     <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="41"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="32"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="34"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="40"/>
-      <c r="B22" s="12">
+      <c r="A22" s="48"/>
+      <c r="B22" s="10">
         <v>44470</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>44471</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>44472</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>44473</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>44474</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="25">
         <v>44475</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="25">
         <v>44476</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>44477</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="11">
         <v>44478</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="11">
         <v>44479</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="25">
         <v>44480</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="25">
         <v>44481</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="25">
         <v>44482</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="25">
         <v>44483</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="25">
         <v>44484</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="11">
         <v>44485</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="11">
         <v>44486</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="25">
         <v>44487</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="25">
         <v>44488</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="25">
         <v>44489</v>
       </c>
-      <c r="V22" s="29">
+      <c r="V22" s="25">
         <v>44490</v>
       </c>
-      <c r="W22" s="29">
+      <c r="W22" s="25">
         <v>44491</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22" s="11">
         <v>44492</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y22" s="11">
         <v>44493</v>
       </c>
-      <c r="Z22" s="29">
+      <c r="Z22" s="25">
         <v>44494</v>
       </c>
-      <c r="AA22" s="29">
+      <c r="AA22" s="25">
         <v>44495</v>
       </c>
-      <c r="AB22" s="29">
+      <c r="AB22" s="25">
         <v>44496</v>
       </c>
-      <c r="AC22" s="29">
+      <c r="AC22" s="25">
         <v>44497</v>
       </c>
-      <c r="AD22" s="11">
+      <c r="AD22" s="9">
         <v>44498</v>
       </c>
-      <c r="AE22" s="14">
+      <c r="AE22" s="11">
         <v>44499</v>
       </c>
-      <c r="AF22" s="14">
+      <c r="AF22" s="11">
         <v>44500</v>
       </c>
-      <c r="AG22" s="11">
-        <v>44501</v>
-      </c>
+      <c r="AG22" s="37"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="36"/>
+    </row>
+    <row r="24" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="38"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Z24" s="15"/>
       <c r="AG24" s="8"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="28" t="s">
-        <v>32</v>
+    <row r="25" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="7"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
+      <c r="A26" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -5918,7 +7122,9 @@
       <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5952,366 +7158,390 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="8"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="8"/>
+    <row r="28" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG28" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="8"/>
+    <row r="29" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="57"/>
+      <c r="B29" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="43"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="8"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="38">
+        <v>44501</v>
+      </c>
+      <c r="C30" s="9">
+        <v>44502</v>
+      </c>
+      <c r="D30" s="9">
+        <v>44503</v>
+      </c>
+      <c r="E30" s="9">
+        <v>44504</v>
+      </c>
+      <c r="F30" s="9">
+        <v>44505</v>
+      </c>
+      <c r="G30" s="11">
+        <v>44506</v>
+      </c>
+      <c r="H30" s="11">
+        <v>44507</v>
+      </c>
+      <c r="I30" s="9">
+        <v>44508</v>
+      </c>
+      <c r="J30" s="9">
+        <v>44509</v>
+      </c>
+      <c r="K30" s="9">
+        <v>44510</v>
+      </c>
+      <c r="L30" s="9">
+        <v>44511</v>
+      </c>
+      <c r="M30" s="9">
+        <v>44512</v>
+      </c>
+      <c r="N30" s="11">
+        <v>44513</v>
+      </c>
+      <c r="O30" s="11">
+        <v>44514</v>
+      </c>
+      <c r="P30" s="9">
+        <v>44515</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>44516</v>
+      </c>
+      <c r="R30" s="9">
+        <v>44517</v>
+      </c>
+      <c r="S30" s="9">
+        <v>44518</v>
+      </c>
+      <c r="T30" s="9">
+        <v>44519</v>
+      </c>
+      <c r="U30" s="11">
+        <v>44520</v>
+      </c>
+      <c r="V30" s="11">
+        <v>44521</v>
+      </c>
+      <c r="W30" s="9">
+        <v>44522</v>
+      </c>
+      <c r="X30" s="9">
+        <v>44523</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>44524</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>44525</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>44526</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>44527</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>44528</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>44529</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>44530</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>44531</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>44532</v>
+      </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
       <c r="AG32" s="8"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
       <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="10"/>
+      <c r="A34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="33"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
+      <c r="A36" s="32"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
+      <c r="A37" s="32"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="32"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="32"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="32"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A41" s="32"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A42" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B21:AG21"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="B21:AF21"/>
+    <mergeCell ref="B29:AG29"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="AD1:AG1"/>
